--- a/sol/Solucion_AntColony_Data_80_Salidas_composicion_zonas_homogeneas..xlsx
+++ b/sol/Solucion_AntColony_Data_80_Salidas_composicion_zonas_homogeneas..xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>538.4806303384149</v>
+        <v>537.9936371499622</v>
       </c>
     </row>
   </sheetData>
@@ -501,960 +501,960 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_74</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S046</t>
+          <t>S052</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_75</t>
+          <t>Pedido_47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S047</t>
+          <t>S054</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S060</t>
+          <t>S049</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S073</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_61</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S054</t>
+          <t>S067</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_50</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S046</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S021</t>
+          <t>S043</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_76</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S068</t>
+          <t>S061</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_52</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S053</t>
+          <t>S068</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_70</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S042</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_54</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S062</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_57</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S069</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_58</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S075</t>
+          <t>S069</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_48</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S042</t>
+          <t>S058</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_42</t>
+          <t>Pedido_46</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S058</t>
+          <t>S079</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_67</t>
+          <t>Pedido_41</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_65</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S001</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_71</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S066</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_72</t>
+          <t>Pedido_70</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S066</t>
+          <t>S053</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_59</t>
+          <t>Pedido_69</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_54</t>
+          <t>Pedido_43</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S078</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_68</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S079</t>
+          <t>S065</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_80</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S071</t>
+          <t>S056</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S048</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_78</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S018</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_77</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_74</t>
+          <t>Pedido_56</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S029</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S070</t>
+          <t>S044</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S074</t>
+          <t>S051</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_60</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_72</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S051</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S067</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S050</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pedido_47</t>
+          <t>Pedido_61</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pedido_46</t>
+          <t>Pedido_51</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S073</t>
+          <t>S072</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pedido_51</t>
+          <t>Pedido_45</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S077</t>
+          <t>S021</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_59</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_52</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S063</t>
+          <t>S062</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pedido_45</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S045</t>
+          <t>S077</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_68</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S065</t>
+          <t>S045</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pedido_53</t>
+          <t>Pedido_63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S043</t>
+          <t>S075</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_78</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S052</t>
+          <t>S074</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pedido_41</t>
+          <t>Pedido_55</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S056</t>
+          <t>S060</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_53</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S059</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Pedido_58</t>
+          <t>Pedido_73</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S050</t>
+          <t>S047</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_80</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S072</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pedido_44</t>
+          <t>Pedido_60</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S071</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pedido_50</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S044</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pedido_71</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S049</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Pedido_77</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pedido_64</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S080</t>
+          <t>S064</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pedido_43</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S057</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S076</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pedido_56</t>
+          <t>Pedido_79</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S041</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pedido_69</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S041</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pedido_73</t>
+          <t>Pedido_49</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S057</t>
+          <t>S055</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Pedido_65</t>
+          <t>Pedido_75</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S055</t>
+          <t>S070</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S064</t>
+          <t>S076</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pedido_62</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S059</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pedido_63</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S063</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pedido_55</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S061</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pedido_79</t>
+          <t>Pedido_57</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S080</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_42</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pedido_66</t>
+          <t>Pedido_62</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S018</t>
+          <t>S029</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S048</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Pedido_49</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S024</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_76</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S078</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.4806303384149</v>
+        <v>533.2194237214835</v>
       </c>
     </row>
     <row r="3">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>536.4168288463617</v>
+        <v>536.4084441561251</v>
       </c>
     </row>
     <row r="4">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.4308087360795</v>
+        <v>535.0150718996648</v>
       </c>
     </row>
     <row r="5">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.5373716077414</v>
+        <v>537.9936371499622</v>
       </c>
     </row>
   </sheetData>
